--- a/mp-starter/src/main/resources/static/excels/hydrology.xlsx
+++ b/mp-starter/src/main/resources/static/excels/hydrology.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/Project/IdeaProjects/CMS/mp-starter/src/main/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/Project/IdeaProjects/CMS/mp-starter/src/main/resources/static/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="800" windowWidth="24960" windowHeight="13900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -91,7 +91,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -372,7 +372,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
